--- a/biology/Zoologie/Ahshislepelta/Ahshislepelta.xlsx
+++ b/biology/Zoologie/Ahshislepelta/Ahshislepelta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ahshislepelta minor
 Ahshislepelta est un genre fossile de dinosaures herbivores de la famille des Ankylosauridae et ayant vécu durant le Crétacé supérieur en Amérique du Nord. Une seule espèce est connue, Ahshislepelta minor.
@@ -512,7 +524,9 @@
           <t>Fossiles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ahshislepelta est connu à partir du spécimen SMP VP-1930, un squelette postcrânien provenant d'un individu adulte constitué de la ceinture scapulaire, une patte avant gauche partielle, de vertèbres et d'ostéodermes. Il a été découvert en 2005. La longueur de l'humérus est de trente et un centimètres.
 </t>
@@ -543,9 +557,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ahshislepelta minor (la seule espèce connue), a été nommé par Michael E. Burns (d) et Robert M. Sullivan (d) en 2011. Le nom générique vient de la localité Ah-shi-sle-pah Wash, où les fossiles ont été trouvés, et pelta, « bouclier » en grec. Le nom spécifique est dérivé de minor, « petit » en latin, en référence à sa petite taille par rapport aux autres ankylosauridés d'Amérique du Nord[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ahshislepelta minor (la seule espèce connue), a été nommé par Michael E. Burns (d) et Robert M. Sullivan (d) en 2011. Le nom générique vient de la localité Ah-shi-sle-pah Wash, où les fossiles ont été trouvés, et pelta, « bouclier » en grec. Le nom spécifique est dérivé de minor, « petit » en latin, en référence à sa petite taille par rapport aux autres ankylosauridés d'Amérique du Nord.
 </t>
         </is>
       </c>
